--- a/Fader Positions vs Value.xlsx
+++ b/Fader Positions vs Value.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Arduino\arduino_crossfader-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\arduino_crossfader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87C9AF5-16D6-4775-8269-1A41B819067A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8D3C20-EA35-48FB-A361-F1029AA5BDF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5E611287-7AB1-41FE-B133-A96CDC453B0F}"/>
+    <workbookView xWindow="16740" yWindow="1155" windowWidth="21600" windowHeight="11385" xr2:uid="{5E611287-7AB1-41FE-B133-A96CDC453B0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Position</t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t>Transition Curve</t>
+  </si>
+  <si>
+    <t>Sharp Cut</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
+  </si>
+  <si>
+    <t>Slow Fade</t>
+  </si>
+  <si>
+    <t>CENTER252</t>
   </si>
 </sst>
 </file>
@@ -89,9 +101,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
@@ -4182,6 +4197,2038 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Infinium X1 Mod - SHARP CurVE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Channel A Volume</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S:$S</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.063197770982651</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.05768242217685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.915746395150933</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.57166876812181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>68.96264819251202</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.029665668482295</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.718257493635221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>106.97918170009036</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>118.76896477369853</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130.0503192795712</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140.79242704330463</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>150.97108659673336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160.56872753453422</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>169.57429809884309</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>177.98303558654845</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>185.79613195446373</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>193.0203092043532</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>199.66732071486462</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>205.75339563225847</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>211.29864374617938</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>216.32643799619052</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>220.86279093724679</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>224.93574021334766</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>228.57475643668513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>231.81018494063616</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>234.67273076727147</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>237.19299405963366</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>239.40106084529694</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>241.3261521000932</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>242.99633203634045</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>244.43827482123899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>245.67708743628293</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>246.73618516077667</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>247.63721521113965</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>248.40002338942318</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>249.04265817547238</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>249.58140651504843</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>250.03085558227417</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>250.4039749962117</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>250.7122143134643</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>250.96561106655039</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>251.17290513798488</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>251.34165582182021</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>251.47835850069936</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>251.58855843433443</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>251.67695969623531</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>251.74752779545199</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>251.80358496925868</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>251.84789752519723</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>251.88275494416609</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>251.91004073059196</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>251.93129521369534</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>251.94777066966827</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>251.96047925359068</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>251.97023430814085</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>251.97768565990671</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>251.98334952959476</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>251.98763367558493</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>251.99085836649405</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>251.99327374249597</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>251.99507408122003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>251.99640943555605</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>251.99739506039757</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>251.99811899541191</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>251.99999999542058</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>251.99999996989266</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>251.99999981668273</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>251.99999896612846</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>251.9999945983345</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>251.99997385065245</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>251.99988268597477</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>251.99951214574281</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>251.99811899541191</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>251.99327374249597</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>251.97768565990671</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>251.93129521369534</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>251.80358496925868</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>251.47835850069936</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>250.7122143134643</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>249.04265817547238</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>245.67708743628293</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>239.40106084529694</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>228.57475643668513</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>211.29864374617938</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>185.79613195446373</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>150.97108659673336</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>106.97918170009036</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>55.57166876812181</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-55.57166876812181</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-106.97918170009036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03F3-4F9D-9CBA-DBB40D3A2D82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Channel B Volume</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$129</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="128"/>
+                <c:pt idx="0">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03F3-4F9D-9CBA-DBB40D3A2D82}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="206293455"/>
+        <c:axId val="203539247"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="206293455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="127"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Fader position</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="203539247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="203539247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="254"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Volume</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206293455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4223,6 +6270,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5302,6 +7389,526 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5375,6 +7982,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>5160</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D7F8DC-A1C6-4765-8A15-BA2E1EE20721}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5680,25 +8325,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB229D0-DEBF-4C26-B640-8CC323EDA17D}">
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:T129"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="J129" sqref="J129"/>
+    <sheetView tabSelected="1" topLeftCell="M45" workbookViewId="0">
+      <selection activeCell="S69" sqref="S69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5714,6 +8363,9 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
@@ -5726,8 +8378,29 @@
       <c r="J1" t="s">
         <v>3</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2">
         <v>0</v>
@@ -5741,6 +8414,7 @@
       <c r="E2">
         <v>252</v>
       </c>
+      <c r="F2" s="2"/>
       <c r="G2">
         <v>0</v>
       </c>
@@ -5750,8 +8424,29 @@
       <c r="J2">
         <v>252</v>
       </c>
+      <c r="K2" s="2"/>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>254</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f>_xlfn.GAUSS(P:P)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>1</v>
@@ -5765,6 +8460,7 @@
       <c r="E3">
         <v>252</v>
       </c>
+      <c r="F3" s="2"/>
       <c r="G3">
         <v>1</v>
       </c>
@@ -5774,8 +8470,29 @@
       <c r="J3">
         <v>252</v>
       </c>
+      <c r="K3" s="2"/>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>252</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>14.063197770982651</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4">
         <v>2</v>
@@ -5789,6 +8506,7 @@
       <c r="E4">
         <v>252</v>
       </c>
+      <c r="F4" s="2"/>
       <c r="G4">
         <v>2</v>
       </c>
@@ -5798,8 +8516,29 @@
       <c r="J4">
         <v>252</v>
       </c>
+      <c r="K4" s="2"/>
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>250</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>28.05768242217685</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>3</v>
@@ -5813,6 +8552,7 @@
       <c r="E5">
         <v>252</v>
       </c>
+      <c r="F5" s="2"/>
       <c r="G5">
         <v>3</v>
       </c>
@@ -5822,8 +8562,29 @@
       <c r="J5">
         <v>252</v>
       </c>
+      <c r="K5" s="2"/>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>248</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>41.915746395150933</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6">
         <v>4</v>
@@ -5837,6 +8598,7 @@
       <c r="E6">
         <v>252</v>
       </c>
+      <c r="F6" s="2"/>
       <c r="G6">
         <v>4</v>
       </c>
@@ -5846,8 +8608,29 @@
       <c r="J6">
         <v>252</v>
       </c>
+      <c r="K6" s="2"/>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>246</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="S6">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>55.57166876812181</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7">
         <v>5</v>
@@ -5861,6 +8644,7 @@
       <c r="E7">
         <v>252</v>
       </c>
+      <c r="F7" s="2"/>
       <c r="G7">
         <v>5</v>
       </c>
@@ -5870,8 +8654,29 @@
       <c r="J7">
         <v>252</v>
       </c>
+      <c r="K7" s="2"/>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7">
+        <v>244</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>68.96264819251202</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8">
         <v>6</v>
@@ -5885,6 +8690,7 @@
       <c r="E8">
         <v>252</v>
       </c>
+      <c r="F8" s="2"/>
       <c r="G8">
         <v>6</v>
       </c>
@@ -5894,8 +8700,29 @@
       <c r="J8">
         <v>252</v>
       </c>
+      <c r="K8" s="2"/>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>242</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>82.029665668482295</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9">
         <v>7</v>
@@ -5909,6 +8736,7 @@
       <c r="E9">
         <v>252</v>
       </c>
+      <c r="F9" s="2"/>
       <c r="G9">
         <v>7</v>
       </c>
@@ -5918,8 +8746,29 @@
       <c r="J9">
         <v>252</v>
       </c>
+      <c r="K9" s="2"/>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>240</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>94.718257493635221</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10">
         <v>8</v>
@@ -5933,6 +8782,7 @@
       <c r="E10">
         <v>252</v>
       </c>
+      <c r="F10" s="2"/>
       <c r="G10">
         <v>8</v>
       </c>
@@ -5942,8 +8792,29 @@
       <c r="J10">
         <v>252</v>
       </c>
+      <c r="K10" s="2"/>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>238</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>106.97918170009036</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11">
         <v>9</v>
@@ -5957,6 +8828,7 @@
       <c r="E11">
         <v>252</v>
       </c>
+      <c r="F11" s="2"/>
       <c r="G11">
         <v>9</v>
       </c>
@@ -5966,8 +8838,29 @@
       <c r="J11">
         <v>252</v>
       </c>
+      <c r="K11" s="2"/>
+      <c r="L11">
+        <v>9</v>
+      </c>
+      <c r="M11">
+        <v>18</v>
+      </c>
+      <c r="N11">
+        <v>236</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="S11">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>118.76896477369853</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12">
         <v>10</v>
@@ -5981,6 +8874,7 @@
       <c r="E12">
         <v>252</v>
       </c>
+      <c r="F12" s="2"/>
       <c r="G12">
         <v>10</v>
       </c>
@@ -5990,8 +8884,29 @@
       <c r="J12">
         <v>252</v>
       </c>
+      <c r="K12" s="2"/>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12">
+        <v>20</v>
+      </c>
+      <c r="N12">
+        <v>234</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12">
+        <v>10</v>
+      </c>
+      <c r="Q12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>130.0503192795712</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13">
         <v>11</v>
@@ -6005,6 +8920,7 @@
       <c r="E13">
         <v>252</v>
       </c>
+      <c r="F13" s="2"/>
       <c r="G13">
         <v>11</v>
       </c>
@@ -6014,8 +8930,29 @@
       <c r="J13">
         <v>252</v>
       </c>
+      <c r="K13" s="2"/>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>22</v>
+      </c>
+      <c r="N13">
+        <v>232</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13">
+        <v>11</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+      <c r="S13">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>140.79242704330463</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14">
         <v>12</v>
@@ -6029,6 +8966,7 @@
       <c r="E14">
         <v>252</v>
       </c>
+      <c r="F14" s="2"/>
       <c r="G14">
         <v>12</v>
       </c>
@@ -6038,8 +8976,29 @@
       <c r="J14">
         <v>252</v>
       </c>
+      <c r="K14" s="2"/>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>24</v>
+      </c>
+      <c r="N14">
+        <v>230</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="S14">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>150.97108659673336</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15">
         <v>13</v>
@@ -6053,6 +9012,7 @@
       <c r="E15">
         <v>252</v>
       </c>
+      <c r="F15" s="2"/>
       <c r="G15">
         <v>13</v>
       </c>
@@ -6062,8 +9022,29 @@
       <c r="J15">
         <v>252</v>
       </c>
+      <c r="K15" s="2"/>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <v>228</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15">
+        <v>13</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+      <c r="S15">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>160.56872753453422</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16">
         <v>14</v>
@@ -6077,6 +9058,7 @@
       <c r="E16">
         <v>252</v>
       </c>
+      <c r="F16" s="2"/>
       <c r="G16">
         <v>14</v>
       </c>
@@ -6086,8 +9068,29 @@
       <c r="J16">
         <v>252</v>
       </c>
+      <c r="K16" s="2"/>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <v>226</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16">
+        <v>14</v>
+      </c>
+      <c r="Q16">
+        <v>14</v>
+      </c>
+      <c r="S16">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>169.57429809884309</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17">
         <v>15</v>
@@ -6101,6 +9104,7 @@
       <c r="E17">
         <v>252</v>
       </c>
+      <c r="F17" s="2"/>
       <c r="G17">
         <v>15</v>
       </c>
@@ -6110,8 +9114,29 @@
       <c r="J17">
         <v>252</v>
       </c>
+      <c r="K17" s="2"/>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>224</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17">
+        <v>15</v>
+      </c>
+      <c r="Q17">
+        <v>15</v>
+      </c>
+      <c r="S17">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>177.98303558654845</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18">
         <v>16</v>
@@ -6125,6 +9150,7 @@
       <c r="E18">
         <v>252</v>
       </c>
+      <c r="F18" s="2"/>
       <c r="G18">
         <v>16</v>
       </c>
@@ -6134,8 +9160,29 @@
       <c r="J18">
         <v>252</v>
       </c>
+      <c r="K18" s="2"/>
+      <c r="L18">
+        <v>16</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>222</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18">
+        <v>16</v>
+      </c>
+      <c r="Q18">
+        <v>16</v>
+      </c>
+      <c r="S18">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>185.79613195446373</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19">
         <v>17</v>
@@ -6149,6 +9196,7 @@
       <c r="E19">
         <v>252</v>
       </c>
+      <c r="F19" s="2"/>
       <c r="G19">
         <v>17</v>
       </c>
@@ -6158,8 +9206,29 @@
       <c r="J19">
         <v>252</v>
       </c>
+      <c r="K19" s="2"/>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <v>220</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19">
+        <v>17</v>
+      </c>
+      <c r="Q19">
+        <v>17</v>
+      </c>
+      <c r="S19">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>193.0203092043532</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20">
         <v>18</v>
@@ -6173,6 +9242,7 @@
       <c r="E20">
         <v>252</v>
       </c>
+      <c r="F20" s="2"/>
       <c r="G20">
         <v>18</v>
       </c>
@@ -6182,8 +9252,29 @@
       <c r="J20">
         <v>252</v>
       </c>
+      <c r="K20" s="2"/>
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20">
+        <v>36</v>
+      </c>
+      <c r="N20">
+        <v>218</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20">
+        <v>18</v>
+      </c>
+      <c r="Q20">
+        <v>18</v>
+      </c>
+      <c r="S20">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>199.66732071486462</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21">
         <v>19</v>
@@ -6197,6 +9288,7 @@
       <c r="E21">
         <v>252</v>
       </c>
+      <c r="F21" s="2"/>
       <c r="G21">
         <v>19</v>
       </c>
@@ -6206,8 +9298,29 @@
       <c r="J21">
         <v>252</v>
       </c>
+      <c r="K21" s="2"/>
+      <c r="L21">
+        <v>19</v>
+      </c>
+      <c r="M21">
+        <v>38</v>
+      </c>
+      <c r="N21">
+        <v>216</v>
+      </c>
+      <c r="O21" s="1"/>
+      <c r="P21">
+        <v>19</v>
+      </c>
+      <c r="Q21">
+        <v>19</v>
+      </c>
+      <c r="S21">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>205.75339563225847</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22">
         <v>20</v>
@@ -6221,6 +9334,7 @@
       <c r="E22">
         <v>252</v>
       </c>
+      <c r="F22" s="2"/>
       <c r="G22">
         <v>20</v>
       </c>
@@ -6230,8 +9344,29 @@
       <c r="J22">
         <v>252</v>
       </c>
+      <c r="K22" s="2"/>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>214</v>
+      </c>
+      <c r="O22" s="1"/>
+      <c r="P22">
+        <v>20</v>
+      </c>
+      <c r="Q22">
+        <v>20</v>
+      </c>
+      <c r="S22">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>211.29864374617938</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23">
         <v>21</v>
@@ -6245,6 +9380,7 @@
       <c r="E23">
         <v>252</v>
       </c>
+      <c r="F23" s="2"/>
       <c r="G23">
         <v>21</v>
       </c>
@@ -6254,8 +9390,29 @@
       <c r="J23">
         <v>252</v>
       </c>
+      <c r="K23" s="2"/>
+      <c r="L23">
+        <v>21</v>
+      </c>
+      <c r="M23">
+        <v>42</v>
+      </c>
+      <c r="N23">
+        <v>212</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23">
+        <v>21</v>
+      </c>
+      <c r="Q23">
+        <v>21</v>
+      </c>
+      <c r="S23">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>216.32643799619052</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24">
         <v>22</v>
@@ -6269,6 +9426,7 @@
       <c r="E24">
         <v>252</v>
       </c>
+      <c r="F24" s="2"/>
       <c r="G24">
         <v>22</v>
       </c>
@@ -6278,8 +9436,29 @@
       <c r="J24">
         <v>252</v>
       </c>
+      <c r="K24" s="2"/>
+      <c r="L24">
+        <v>22</v>
+      </c>
+      <c r="M24">
+        <v>44</v>
+      </c>
+      <c r="N24">
+        <v>210</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24">
+        <v>22</v>
+      </c>
+      <c r="Q24">
+        <v>22</v>
+      </c>
+      <c r="S24">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>220.86279093724679</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25">
         <v>23</v>
@@ -6293,6 +9472,7 @@
       <c r="E25">
         <v>252</v>
       </c>
+      <c r="F25" s="2"/>
       <c r="G25">
         <v>23</v>
       </c>
@@ -6302,8 +9482,29 @@
       <c r="J25">
         <v>252</v>
       </c>
+      <c r="K25" s="2"/>
+      <c r="L25">
+        <v>23</v>
+      </c>
+      <c r="M25">
+        <v>46</v>
+      </c>
+      <c r="N25">
+        <v>208</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25">
+        <v>23</v>
+      </c>
+      <c r="Q25">
+        <v>23</v>
+      </c>
+      <c r="S25">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>224.93574021334766</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26">
         <v>24</v>
@@ -6317,6 +9518,7 @@
       <c r="E26">
         <v>252</v>
       </c>
+      <c r="F26" s="2"/>
       <c r="G26">
         <v>24</v>
       </c>
@@ -6326,8 +9528,29 @@
       <c r="J26">
         <v>252</v>
       </c>
+      <c r="K26" s="2"/>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>48</v>
+      </c>
+      <c r="N26">
+        <v>206</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26">
+        <v>24</v>
+      </c>
+      <c r="Q26">
+        <v>24</v>
+      </c>
+      <c r="S26">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>228.57475643668513</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27">
         <v>25</v>
@@ -6341,6 +9564,7 @@
       <c r="E27">
         <v>252</v>
       </c>
+      <c r="F27" s="2"/>
       <c r="G27">
         <v>25</v>
       </c>
@@ -6350,8 +9574,29 @@
       <c r="J27">
         <v>252</v>
       </c>
+      <c r="K27" s="2"/>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <v>204</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27">
+        <v>25</v>
+      </c>
+      <c r="Q27">
+        <v>25</v>
+      </c>
+      <c r="S27">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>231.81018494063616</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28">
         <v>26</v>
@@ -6365,6 +9610,7 @@
       <c r="E28">
         <v>252</v>
       </c>
+      <c r="F28" s="2"/>
       <c r="G28">
         <v>26</v>
       </c>
@@ -6374,8 +9620,29 @@
       <c r="J28">
         <v>252</v>
       </c>
+      <c r="K28" s="2"/>
+      <c r="L28">
+        <v>26</v>
+      </c>
+      <c r="M28">
+        <v>52</v>
+      </c>
+      <c r="N28">
+        <v>202</v>
+      </c>
+      <c r="O28" s="1"/>
+      <c r="P28">
+        <v>26</v>
+      </c>
+      <c r="Q28">
+        <v>26</v>
+      </c>
+      <c r="S28">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>234.67273076727147</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>27</v>
       </c>
@@ -6397,8 +9664,27 @@
       <c r="J29">
         <v>252</v>
       </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>54</v>
+      </c>
+      <c r="N29">
+        <v>200</v>
+      </c>
+      <c r="P29">
+        <v>27</v>
+      </c>
+      <c r="Q29">
+        <v>27</v>
+      </c>
+      <c r="S29">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>237.19299405963366</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>28</v>
       </c>
@@ -6420,8 +9706,27 @@
       <c r="J30">
         <v>252</v>
       </c>
+      <c r="L30">
+        <v>28</v>
+      </c>
+      <c r="M30">
+        <v>56</v>
+      </c>
+      <c r="N30">
+        <v>198</v>
+      </c>
+      <c r="P30">
+        <v>28</v>
+      </c>
+      <c r="Q30">
+        <v>28</v>
+      </c>
+      <c r="S30">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>239.40106084529694</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>29</v>
       </c>
@@ -6443,8 +9748,27 @@
       <c r="J31">
         <v>252</v>
       </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>58</v>
+      </c>
+      <c r="N31">
+        <v>196</v>
+      </c>
+      <c r="P31">
+        <v>29</v>
+      </c>
+      <c r="Q31">
+        <v>29</v>
+      </c>
+      <c r="S31">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>241.3261521000932</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>30</v>
       </c>
@@ -6466,8 +9790,27 @@
       <c r="J32">
         <v>252</v>
       </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>60</v>
+      </c>
+      <c r="N32">
+        <v>194</v>
+      </c>
+      <c r="P32">
+        <v>30</v>
+      </c>
+      <c r="Q32">
+        <v>30</v>
+      </c>
+      <c r="S32">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>242.99633203634045</v>
+      </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>31</v>
       </c>
@@ -6489,8 +9832,27 @@
       <c r="J33">
         <v>252</v>
       </c>
+      <c r="L33">
+        <v>31</v>
+      </c>
+      <c r="M33">
+        <v>62</v>
+      </c>
+      <c r="N33">
+        <v>192</v>
+      </c>
+      <c r="P33">
+        <v>31</v>
+      </c>
+      <c r="Q33">
+        <v>31</v>
+      </c>
+      <c r="S33">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>244.43827482123899</v>
+      </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>32</v>
       </c>
@@ -6512,8 +9874,27 @@
       <c r="J34">
         <v>252</v>
       </c>
+      <c r="L34">
+        <v>32</v>
+      </c>
+      <c r="M34">
+        <v>64</v>
+      </c>
+      <c r="N34">
+        <v>190</v>
+      </c>
+      <c r="P34">
+        <v>32</v>
+      </c>
+      <c r="Q34">
+        <v>32</v>
+      </c>
+      <c r="S34">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>245.67708743628293</v>
+      </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>33</v>
       </c>
@@ -6535,8 +9916,27 @@
       <c r="J35">
         <v>252</v>
       </c>
+      <c r="L35">
+        <v>33</v>
+      </c>
+      <c r="M35">
+        <v>66</v>
+      </c>
+      <c r="N35">
+        <v>188</v>
+      </c>
+      <c r="P35">
+        <v>33</v>
+      </c>
+      <c r="Q35">
+        <v>33</v>
+      </c>
+      <c r="S35">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>246.73618516077667</v>
+      </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>34</v>
       </c>
@@ -6558,8 +9958,27 @@
       <c r="J36">
         <v>252</v>
       </c>
+      <c r="L36">
+        <v>34</v>
+      </c>
+      <c r="M36">
+        <v>68</v>
+      </c>
+      <c r="N36">
+        <v>186</v>
+      </c>
+      <c r="P36">
+        <v>34</v>
+      </c>
+      <c r="Q36">
+        <v>34</v>
+      </c>
+      <c r="S36">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>247.63721521113965</v>
+      </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>35</v>
       </c>
@@ -6581,8 +10000,27 @@
       <c r="J37">
         <v>252</v>
       </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>70</v>
+      </c>
+      <c r="N37">
+        <v>184</v>
+      </c>
+      <c r="P37">
+        <v>35</v>
+      </c>
+      <c r="Q37">
+        <v>35</v>
+      </c>
+      <c r="S37">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>248.40002338942318</v>
+      </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>36</v>
       </c>
@@ -6604,8 +10042,27 @@
       <c r="J38">
         <v>252</v>
       </c>
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <v>72</v>
+      </c>
+      <c r="N38">
+        <v>182</v>
+      </c>
+      <c r="P38">
+        <v>36</v>
+      </c>
+      <c r="Q38">
+        <v>36</v>
+      </c>
+      <c r="S38">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>249.04265817547238</v>
+      </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>37</v>
       </c>
@@ -6627,8 +10084,27 @@
       <c r="J39">
         <v>252</v>
       </c>
+      <c r="L39">
+        <v>37</v>
+      </c>
+      <c r="M39">
+        <v>74</v>
+      </c>
+      <c r="N39">
+        <v>180</v>
+      </c>
+      <c r="P39">
+        <v>37</v>
+      </c>
+      <c r="Q39">
+        <v>37</v>
+      </c>
+      <c r="S39">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>249.58140651504843</v>
+      </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>38</v>
       </c>
@@ -6650,8 +10126,27 @@
       <c r="J40">
         <v>252</v>
       </c>
+      <c r="L40">
+        <v>38</v>
+      </c>
+      <c r="M40">
+        <v>76</v>
+      </c>
+      <c r="N40">
+        <v>178</v>
+      </c>
+      <c r="P40">
+        <v>38</v>
+      </c>
+      <c r="Q40">
+        <v>38</v>
+      </c>
+      <c r="S40">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>250.03085558227417</v>
+      </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>39</v>
       </c>
@@ -6673,8 +10168,27 @@
       <c r="J41">
         <v>252</v>
       </c>
+      <c r="L41">
+        <v>39</v>
+      </c>
+      <c r="M41">
+        <v>78</v>
+      </c>
+      <c r="N41">
+        <v>176</v>
+      </c>
+      <c r="P41">
+        <v>39</v>
+      </c>
+      <c r="Q41">
+        <v>39</v>
+      </c>
+      <c r="S41">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>250.4039749962117</v>
+      </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>40</v>
       </c>
@@ -6696,8 +10210,27 @@
       <c r="J42">
         <v>252</v>
       </c>
+      <c r="L42">
+        <v>40</v>
+      </c>
+      <c r="M42">
+        <v>80</v>
+      </c>
+      <c r="N42">
+        <v>174</v>
+      </c>
+      <c r="P42">
+        <v>40</v>
+      </c>
+      <c r="Q42">
+        <v>40</v>
+      </c>
+      <c r="S42">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>250.7122143134643</v>
+      </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>41</v>
       </c>
@@ -6719,8 +10252,27 @@
       <c r="J43">
         <v>252</v>
       </c>
+      <c r="L43">
+        <v>41</v>
+      </c>
+      <c r="M43">
+        <v>82</v>
+      </c>
+      <c r="N43">
+        <v>172</v>
+      </c>
+      <c r="P43">
+        <v>41</v>
+      </c>
+      <c r="Q43">
+        <v>41</v>
+      </c>
+      <c r="S43">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>250.96561106655039</v>
+      </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>42</v>
       </c>
@@ -6742,8 +10294,27 @@
       <c r="J44">
         <v>252</v>
       </c>
+      <c r="L44">
+        <v>42</v>
+      </c>
+      <c r="M44">
+        <v>84</v>
+      </c>
+      <c r="N44">
+        <v>170</v>
+      </c>
+      <c r="P44">
+        <v>42</v>
+      </c>
+      <c r="Q44">
+        <v>42</v>
+      </c>
+      <c r="S44">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.17290513798488</v>
+      </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>43</v>
       </c>
@@ -6765,8 +10336,27 @@
       <c r="J45">
         <v>252</v>
       </c>
+      <c r="L45">
+        <v>43</v>
+      </c>
+      <c r="M45">
+        <v>86</v>
+      </c>
+      <c r="N45">
+        <v>168</v>
+      </c>
+      <c r="P45">
+        <v>43</v>
+      </c>
+      <c r="Q45">
+        <v>43</v>
+      </c>
+      <c r="S45">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.34165582182021</v>
+      </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>44</v>
       </c>
@@ -6788,8 +10378,27 @@
       <c r="J46">
         <v>252</v>
       </c>
+      <c r="L46">
+        <v>44</v>
+      </c>
+      <c r="M46">
+        <v>88</v>
+      </c>
+      <c r="N46">
+        <v>166</v>
+      </c>
+      <c r="P46">
+        <v>44</v>
+      </c>
+      <c r="Q46">
+        <v>44</v>
+      </c>
+      <c r="S46">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.47835850069936</v>
+      </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>45</v>
       </c>
@@ -6811,8 +10420,27 @@
       <c r="J47">
         <v>252</v>
       </c>
+      <c r="L47">
+        <v>45</v>
+      </c>
+      <c r="M47">
+        <v>90</v>
+      </c>
+      <c r="N47">
+        <v>164</v>
+      </c>
+      <c r="P47">
+        <v>45</v>
+      </c>
+      <c r="Q47">
+        <v>45</v>
+      </c>
+      <c r="S47">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.58855843433443</v>
+      </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>46</v>
       </c>
@@ -6834,8 +10462,27 @@
       <c r="J48">
         <v>252</v>
       </c>
+      <c r="L48">
+        <v>46</v>
+      </c>
+      <c r="M48">
+        <v>92</v>
+      </c>
+      <c r="N48">
+        <v>162</v>
+      </c>
+      <c r="P48">
+        <v>46</v>
+      </c>
+      <c r="Q48">
+        <v>46</v>
+      </c>
+      <c r="S48">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.67695969623531</v>
+      </c>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>47</v>
       </c>
@@ -6857,8 +10504,27 @@
       <c r="J49">
         <v>252</v>
       </c>
+      <c r="L49">
+        <v>47</v>
+      </c>
+      <c r="M49">
+        <v>94</v>
+      </c>
+      <c r="N49">
+        <v>160</v>
+      </c>
+      <c r="P49">
+        <v>47</v>
+      </c>
+      <c r="Q49">
+        <v>47</v>
+      </c>
+      <c r="S49">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.74752779545199</v>
+      </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>48</v>
       </c>
@@ -6880,8 +10546,27 @@
       <c r="J50">
         <v>252</v>
       </c>
+      <c r="L50">
+        <v>48</v>
+      </c>
+      <c r="M50">
+        <v>96</v>
+      </c>
+      <c r="N50">
+        <v>158</v>
+      </c>
+      <c r="P50">
+        <v>48</v>
+      </c>
+      <c r="Q50">
+        <v>48</v>
+      </c>
+      <c r="S50">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.80358496925868</v>
+      </c>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>49</v>
       </c>
@@ -6903,8 +10588,27 @@
       <c r="J51">
         <v>252</v>
       </c>
+      <c r="L51">
+        <v>49</v>
+      </c>
+      <c r="M51">
+        <v>98</v>
+      </c>
+      <c r="N51">
+        <v>156</v>
+      </c>
+      <c r="P51">
+        <v>49</v>
+      </c>
+      <c r="Q51">
+        <v>49</v>
+      </c>
+      <c r="S51">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.84789752519723</v>
+      </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>50</v>
       </c>
@@ -6926,8 +10630,27 @@
       <c r="J52">
         <v>252</v>
       </c>
+      <c r="L52">
+        <v>50</v>
+      </c>
+      <c r="M52">
+        <v>100</v>
+      </c>
+      <c r="N52">
+        <v>154</v>
+      </c>
+      <c r="P52">
+        <v>50</v>
+      </c>
+      <c r="Q52">
+        <v>50</v>
+      </c>
+      <c r="S52">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.88275494416609</v>
+      </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>51</v>
       </c>
@@ -6949,8 +10672,27 @@
       <c r="J53">
         <v>252</v>
       </c>
+      <c r="L53">
+        <v>51</v>
+      </c>
+      <c r="M53">
+        <v>102</v>
+      </c>
+      <c r="N53">
+        <v>152</v>
+      </c>
+      <c r="P53">
+        <v>51</v>
+      </c>
+      <c r="Q53">
+        <v>51</v>
+      </c>
+      <c r="S53">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.91004073059196</v>
+      </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>52</v>
       </c>
@@ -6972,8 +10714,27 @@
       <c r="J54">
         <v>252</v>
       </c>
+      <c r="L54">
+        <v>52</v>
+      </c>
+      <c r="M54">
+        <v>104</v>
+      </c>
+      <c r="N54">
+        <v>150</v>
+      </c>
+      <c r="P54">
+        <v>52</v>
+      </c>
+      <c r="Q54">
+        <v>52</v>
+      </c>
+      <c r="S54">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.93129521369534</v>
+      </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>53</v>
       </c>
@@ -6995,8 +10756,27 @@
       <c r="J55">
         <v>252</v>
       </c>
+      <c r="L55">
+        <v>53</v>
+      </c>
+      <c r="M55">
+        <v>106</v>
+      </c>
+      <c r="N55">
+        <v>148</v>
+      </c>
+      <c r="P55">
+        <v>53</v>
+      </c>
+      <c r="Q55">
+        <v>53</v>
+      </c>
+      <c r="S55">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.94777066966827</v>
+      </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>54</v>
       </c>
@@ -7018,8 +10798,27 @@
       <c r="J56">
         <v>252</v>
       </c>
+      <c r="L56">
+        <v>54</v>
+      </c>
+      <c r="M56">
+        <v>108</v>
+      </c>
+      <c r="N56">
+        <v>146</v>
+      </c>
+      <c r="P56">
+        <v>54</v>
+      </c>
+      <c r="Q56">
+        <v>54</v>
+      </c>
+      <c r="S56">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.96047925359068</v>
+      </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>55</v>
       </c>
@@ -7041,8 +10840,27 @@
       <c r="J57">
         <v>252</v>
       </c>
+      <c r="L57">
+        <v>55</v>
+      </c>
+      <c r="M57">
+        <v>110</v>
+      </c>
+      <c r="N57">
+        <v>144</v>
+      </c>
+      <c r="P57">
+        <v>55</v>
+      </c>
+      <c r="Q57">
+        <v>55</v>
+      </c>
+      <c r="S57">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.97023430814085</v>
+      </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>56</v>
       </c>
@@ -7064,8 +10882,27 @@
       <c r="J58">
         <v>252</v>
       </c>
+      <c r="L58">
+        <v>56</v>
+      </c>
+      <c r="M58">
+        <v>112</v>
+      </c>
+      <c r="N58">
+        <v>142</v>
+      </c>
+      <c r="P58">
+        <v>56</v>
+      </c>
+      <c r="Q58">
+        <v>56</v>
+      </c>
+      <c r="S58">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.97768565990671</v>
+      </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>57</v>
       </c>
@@ -7087,8 +10924,27 @@
       <c r="J59">
         <v>252</v>
       </c>
+      <c r="L59">
+        <v>57</v>
+      </c>
+      <c r="M59">
+        <v>114</v>
+      </c>
+      <c r="N59">
+        <v>140</v>
+      </c>
+      <c r="P59">
+        <v>57</v>
+      </c>
+      <c r="Q59">
+        <v>57</v>
+      </c>
+      <c r="S59">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.98334952959476</v>
+      </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>58</v>
       </c>
@@ -7110,8 +10966,27 @@
       <c r="J60">
         <v>252</v>
       </c>
+      <c r="L60">
+        <v>58</v>
+      </c>
+      <c r="M60">
+        <v>116</v>
+      </c>
+      <c r="N60">
+        <v>138</v>
+      </c>
+      <c r="P60">
+        <v>58</v>
+      </c>
+      <c r="Q60">
+        <v>58</v>
+      </c>
+      <c r="S60">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.98763367558493</v>
+      </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>59</v>
       </c>
@@ -7133,8 +11008,27 @@
       <c r="J61">
         <v>252</v>
       </c>
+      <c r="L61">
+        <v>59</v>
+      </c>
+      <c r="M61">
+        <v>118</v>
+      </c>
+      <c r="N61">
+        <v>136</v>
+      </c>
+      <c r="P61">
+        <v>59</v>
+      </c>
+      <c r="Q61">
+        <v>59</v>
+      </c>
+      <c r="S61">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.99085836649405</v>
+      </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>60</v>
       </c>
@@ -7156,8 +11050,27 @@
       <c r="J62">
         <v>252</v>
       </c>
+      <c r="L62">
+        <v>60</v>
+      </c>
+      <c r="M62">
+        <v>120</v>
+      </c>
+      <c r="N62">
+        <v>134</v>
+      </c>
+      <c r="P62">
+        <v>60</v>
+      </c>
+      <c r="Q62">
+        <v>60</v>
+      </c>
+      <c r="S62">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.99327374249597</v>
+      </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>61</v>
       </c>
@@ -7179,8 +11092,27 @@
       <c r="J63">
         <v>252</v>
       </c>
+      <c r="L63">
+        <v>61</v>
+      </c>
+      <c r="M63">
+        <v>122</v>
+      </c>
+      <c r="N63">
+        <v>132</v>
+      </c>
+      <c r="P63">
+        <v>61</v>
+      </c>
+      <c r="Q63">
+        <v>61</v>
+      </c>
+      <c r="S63">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.99507408122003</v>
+      </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>62</v>
       </c>
@@ -7202,8 +11134,27 @@
       <c r="J64">
         <v>252</v>
       </c>
+      <c r="L64">
+        <v>62</v>
+      </c>
+      <c r="M64">
+        <v>124</v>
+      </c>
+      <c r="N64">
+        <v>130</v>
+      </c>
+      <c r="P64">
+        <v>62</v>
+      </c>
+      <c r="Q64">
+        <v>62</v>
+      </c>
+      <c r="S64">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.99640943555605</v>
+      </c>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>63</v>
       </c>
@@ -7225,8 +11176,27 @@
       <c r="J65">
         <v>252</v>
       </c>
+      <c r="L65">
+        <v>63</v>
+      </c>
+      <c r="M65">
+        <v>126</v>
+      </c>
+      <c r="N65">
+        <v>128</v>
+      </c>
+      <c r="P65">
+        <v>63</v>
+      </c>
+      <c r="Q65">
+        <v>63</v>
+      </c>
+      <c r="S65">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.99739506039757</v>
+      </c>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>64</v>
       </c>
@@ -7248,8 +11218,27 @@
       <c r="J66">
         <v>252</v>
       </c>
+      <c r="L66">
+        <v>64</v>
+      </c>
+      <c r="M66">
+        <v>128</v>
+      </c>
+      <c r="N66">
+        <v>126</v>
+      </c>
+      <c r="P66">
+        <v>64</v>
+      </c>
+      <c r="Q66">
+        <v>64</v>
+      </c>
+      <c r="S66">
+        <f>_xlfn.GAUSS(Q:Q * 0.07) * 504</f>
+        <v>251.99811899541191</v>
+      </c>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>65</v>
       </c>
@@ -7271,8 +11260,30 @@
       <c r="J67">
         <v>252</v>
       </c>
+      <c r="L67">
+        <v>65</v>
+      </c>
+      <c r="M67">
+        <v>130</v>
+      </c>
+      <c r="N67">
+        <v>124</v>
+      </c>
+      <c r="P67">
+        <v>65</v>
+      </c>
+      <c r="Q67">
+        <v>65</v>
+      </c>
+      <c r="S67" t="s">
+        <v>8</v>
+      </c>
+      <c r="T67">
+        <f>1/_xlfn.GAUSS(P67)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>66</v>
       </c>
@@ -7294,8 +11305,27 @@
       <c r="J68">
         <v>252</v>
       </c>
+      <c r="L68">
+        <v>66</v>
+      </c>
+      <c r="M68">
+        <v>132</v>
+      </c>
+      <c r="N68">
+        <v>122</v>
+      </c>
+      <c r="P68">
+        <v>66</v>
+      </c>
+      <c r="Q68">
+        <v>66</v>
+      </c>
+      <c r="R68">
+        <f>256-(Q:Q*4)</f>
+        <v>-8</v>
+      </c>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>67</v>
       </c>
@@ -7317,8 +11347,30 @@
       <c r="J69">
         <v>252</v>
       </c>
+      <c r="L69">
+        <v>67</v>
+      </c>
+      <c r="M69">
+        <v>134</v>
+      </c>
+      <c r="N69">
+        <v>120</v>
+      </c>
+      <c r="P69">
+        <v>67</v>
+      </c>
+      <c r="Q69">
+        <v>67</v>
+      </c>
+      <c r="S69">
+        <f t="shared" ref="S69:S102" si="0">_xlfn.GAUSS((252+R:R)*0.07) * 504</f>
+        <v>252</v>
+      </c>
+      <c r="T69">
+        <v>4.2699999999999996</v>
+      </c>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>68</v>
       </c>
@@ -7340,8 +11392,30 @@
       <c r="J70">
         <v>252</v>
       </c>
+      <c r="L70">
+        <v>68</v>
+      </c>
+      <c r="M70">
+        <v>136</v>
+      </c>
+      <c r="N70">
+        <v>118</v>
+      </c>
+      <c r="P70">
+        <v>68</v>
+      </c>
+      <c r="Q70">
+        <v>68</v>
+      </c>
+      <c r="S70">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T70">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>69</v>
       </c>
@@ -7363,8 +11437,30 @@
       <c r="J71">
         <v>252</v>
       </c>
+      <c r="L71">
+        <v>69</v>
+      </c>
+      <c r="M71">
+        <v>138</v>
+      </c>
+      <c r="N71">
+        <v>116</v>
+      </c>
+      <c r="P71">
+        <v>69</v>
+      </c>
+      <c r="Q71">
+        <v>69</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T71">
+        <v>4.13</v>
+      </c>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>70</v>
       </c>
@@ -7386,8 +11482,30 @@
       <c r="J72">
         <v>252</v>
       </c>
+      <c r="L72">
+        <v>70</v>
+      </c>
+      <c r="M72">
+        <v>140</v>
+      </c>
+      <c r="N72">
+        <v>114</v>
+      </c>
+      <c r="P72">
+        <v>70</v>
+      </c>
+      <c r="Q72">
+        <v>70</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T72">
+        <v>4.0599999999999996</v>
+      </c>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>71</v>
       </c>
@@ -7409,8 +11527,30 @@
       <c r="J73">
         <v>252</v>
       </c>
+      <c r="L73">
+        <v>71</v>
+      </c>
+      <c r="M73">
+        <v>142</v>
+      </c>
+      <c r="N73">
+        <v>112</v>
+      </c>
+      <c r="P73">
+        <v>71</v>
+      </c>
+      <c r="Q73">
+        <v>71</v>
+      </c>
+      <c r="S73">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T73">
+        <v>3.99</v>
+      </c>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>72</v>
       </c>
@@ -7432,8 +11572,30 @@
       <c r="J74">
         <v>252</v>
       </c>
+      <c r="L74">
+        <v>72</v>
+      </c>
+      <c r="M74">
+        <v>144</v>
+      </c>
+      <c r="N74">
+        <v>110</v>
+      </c>
+      <c r="P74">
+        <v>72</v>
+      </c>
+      <c r="Q74">
+        <v>72</v>
+      </c>
+      <c r="S74">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T74">
+        <v>3.92</v>
+      </c>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>73</v>
       </c>
@@ -7455,8 +11617,30 @@
       <c r="J75">
         <v>252</v>
       </c>
+      <c r="L75">
+        <v>73</v>
+      </c>
+      <c r="M75">
+        <v>146</v>
+      </c>
+      <c r="N75">
+        <v>108</v>
+      </c>
+      <c r="P75">
+        <v>73</v>
+      </c>
+      <c r="Q75">
+        <v>73</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T75">
+        <v>3.85</v>
+      </c>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>74</v>
       </c>
@@ -7478,8 +11662,30 @@
       <c r="J76">
         <v>252</v>
       </c>
+      <c r="L76">
+        <v>74</v>
+      </c>
+      <c r="M76">
+        <v>148</v>
+      </c>
+      <c r="N76">
+        <v>106</v>
+      </c>
+      <c r="P76">
+        <v>74</v>
+      </c>
+      <c r="Q76">
+        <v>74</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T76">
+        <v>3.78</v>
+      </c>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>75</v>
       </c>
@@ -7501,8 +11707,30 @@
       <c r="J77">
         <v>252</v>
       </c>
+      <c r="L77">
+        <v>75</v>
+      </c>
+      <c r="M77">
+        <v>150</v>
+      </c>
+      <c r="N77">
+        <v>104</v>
+      </c>
+      <c r="P77">
+        <v>75</v>
+      </c>
+      <c r="Q77">
+        <v>75</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T77">
+        <v>3.71</v>
+      </c>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>76</v>
       </c>
@@ -7524,8 +11752,30 @@
       <c r="J78">
         <v>252</v>
       </c>
+      <c r="L78">
+        <v>76</v>
+      </c>
+      <c r="M78">
+        <v>152</v>
+      </c>
+      <c r="N78">
+        <v>102</v>
+      </c>
+      <c r="P78">
+        <v>76</v>
+      </c>
+      <c r="Q78">
+        <v>76</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T78">
+        <v>3.64</v>
+      </c>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>77</v>
       </c>
@@ -7547,8 +11797,30 @@
       <c r="J79">
         <v>252</v>
       </c>
+      <c r="L79">
+        <v>77</v>
+      </c>
+      <c r="M79">
+        <v>154</v>
+      </c>
+      <c r="N79">
+        <v>100</v>
+      </c>
+      <c r="P79">
+        <v>77</v>
+      </c>
+      <c r="Q79">
+        <v>77</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T79">
+        <v>3.57</v>
+      </c>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>78</v>
       </c>
@@ -7570,8 +11842,30 @@
       <c r="J80">
         <v>252</v>
       </c>
+      <c r="L80">
+        <v>78</v>
+      </c>
+      <c r="M80">
+        <v>156</v>
+      </c>
+      <c r="N80">
+        <v>98</v>
+      </c>
+      <c r="P80">
+        <v>78</v>
+      </c>
+      <c r="Q80">
+        <v>78</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T80">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>79</v>
       </c>
@@ -7593,8 +11887,30 @@
       <c r="J81">
         <v>252</v>
       </c>
+      <c r="L81">
+        <v>79</v>
+      </c>
+      <c r="M81">
+        <v>158</v>
+      </c>
+      <c r="N81">
+        <v>96</v>
+      </c>
+      <c r="P81">
+        <v>79</v>
+      </c>
+      <c r="Q81">
+        <v>79</v>
+      </c>
+      <c r="S81">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T81">
+        <v>3.43</v>
+      </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>80</v>
       </c>
@@ -7616,8 +11932,30 @@
       <c r="J82">
         <v>252</v>
       </c>
+      <c r="L82">
+        <v>80</v>
+      </c>
+      <c r="M82">
+        <v>160</v>
+      </c>
+      <c r="N82">
+        <v>94</v>
+      </c>
+      <c r="P82">
+        <v>80</v>
+      </c>
+      <c r="Q82">
+        <v>80</v>
+      </c>
+      <c r="S82">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T82">
+        <v>3.36</v>
+      </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>81</v>
       </c>
@@ -7639,8 +11977,30 @@
       <c r="J83">
         <v>252</v>
       </c>
+      <c r="L83">
+        <v>81</v>
+      </c>
+      <c r="M83">
+        <v>162</v>
+      </c>
+      <c r="N83">
+        <v>92</v>
+      </c>
+      <c r="P83">
+        <v>81</v>
+      </c>
+      <c r="Q83">
+        <v>81</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T83">
+        <v>3.29</v>
+      </c>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>82</v>
       </c>
@@ -7662,8 +12022,30 @@
       <c r="J84">
         <v>252</v>
       </c>
+      <c r="L84">
+        <v>82</v>
+      </c>
+      <c r="M84">
+        <v>164</v>
+      </c>
+      <c r="N84">
+        <v>90</v>
+      </c>
+      <c r="P84">
+        <v>82</v>
+      </c>
+      <c r="Q84">
+        <v>82</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T84">
+        <v>3.22</v>
+      </c>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>83</v>
       </c>
@@ -7685,8 +12067,30 @@
       <c r="J85">
         <v>252</v>
       </c>
+      <c r="L85">
+        <v>83</v>
+      </c>
+      <c r="M85">
+        <v>166</v>
+      </c>
+      <c r="N85">
+        <v>88</v>
+      </c>
+      <c r="P85">
+        <v>83</v>
+      </c>
+      <c r="Q85">
+        <v>83</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T85">
+        <v>3.15</v>
+      </c>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>84</v>
       </c>
@@ -7708,8 +12112,30 @@
       <c r="J86">
         <v>252</v>
       </c>
+      <c r="L86">
+        <v>84</v>
+      </c>
+      <c r="M86">
+        <v>168</v>
+      </c>
+      <c r="N86">
+        <v>86</v>
+      </c>
+      <c r="P86">
+        <v>84</v>
+      </c>
+      <c r="Q86">
+        <v>84</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T86">
+        <v>3.08</v>
+      </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>85</v>
       </c>
@@ -7731,8 +12157,30 @@
       <c r="J87">
         <v>252</v>
       </c>
+      <c r="L87">
+        <v>85</v>
+      </c>
+      <c r="M87">
+        <v>170</v>
+      </c>
+      <c r="N87">
+        <v>84</v>
+      </c>
+      <c r="P87">
+        <v>85</v>
+      </c>
+      <c r="Q87">
+        <v>85</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T87">
+        <v>3.01</v>
+      </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>86</v>
       </c>
@@ -7754,8 +12202,30 @@
       <c r="J88">
         <v>252</v>
       </c>
+      <c r="L88">
+        <v>86</v>
+      </c>
+      <c r="M88">
+        <v>172</v>
+      </c>
+      <c r="N88">
+        <v>82</v>
+      </c>
+      <c r="P88">
+        <v>86</v>
+      </c>
+      <c r="Q88">
+        <v>86</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T88">
+        <v>2.94</v>
+      </c>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>87</v>
       </c>
@@ -7777,8 +12247,30 @@
       <c r="J89">
         <v>252</v>
       </c>
+      <c r="L89">
+        <v>87</v>
+      </c>
+      <c r="M89">
+        <v>174</v>
+      </c>
+      <c r="N89">
+        <v>80</v>
+      </c>
+      <c r="P89">
+        <v>87</v>
+      </c>
+      <c r="Q89">
+        <v>87</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T89">
+        <v>2.87</v>
+      </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>88</v>
       </c>
@@ -7800,8 +12292,30 @@
       <c r="J90">
         <v>252</v>
       </c>
+      <c r="L90">
+        <v>88</v>
+      </c>
+      <c r="M90">
+        <v>176</v>
+      </c>
+      <c r="N90">
+        <v>78</v>
+      </c>
+      <c r="P90">
+        <v>88</v>
+      </c>
+      <c r="Q90">
+        <v>88</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T90">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>89</v>
       </c>
@@ -7823,8 +12337,30 @@
       <c r="J91">
         <v>252</v>
       </c>
+      <c r="L91">
+        <v>89</v>
+      </c>
+      <c r="M91">
+        <v>178</v>
+      </c>
+      <c r="N91">
+        <v>76</v>
+      </c>
+      <c r="P91">
+        <v>89</v>
+      </c>
+      <c r="Q91">
+        <v>89</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T91">
+        <v>2.73</v>
+      </c>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>90</v>
       </c>
@@ -7846,8 +12382,30 @@
       <c r="J92">
         <v>252</v>
       </c>
+      <c r="L92">
+        <v>90</v>
+      </c>
+      <c r="M92">
+        <v>180</v>
+      </c>
+      <c r="N92">
+        <v>74</v>
+      </c>
+      <c r="P92">
+        <v>90</v>
+      </c>
+      <c r="Q92">
+        <v>90</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T92">
+        <v>2.66</v>
+      </c>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>91</v>
       </c>
@@ -7869,8 +12427,30 @@
       <c r="J93">
         <v>252</v>
       </c>
+      <c r="L93">
+        <v>91</v>
+      </c>
+      <c r="M93">
+        <v>182</v>
+      </c>
+      <c r="N93">
+        <v>72</v>
+      </c>
+      <c r="P93">
+        <v>91</v>
+      </c>
+      <c r="Q93">
+        <v>91</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T93">
+        <v>2.59</v>
+      </c>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>92</v>
       </c>
@@ -7892,8 +12472,30 @@
       <c r="J94">
         <v>252</v>
       </c>
+      <c r="L94">
+        <v>92</v>
+      </c>
+      <c r="M94">
+        <v>184</v>
+      </c>
+      <c r="N94">
+        <v>70</v>
+      </c>
+      <c r="P94">
+        <v>92</v>
+      </c>
+      <c r="Q94">
+        <v>92</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T94">
+        <v>2.52</v>
+      </c>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>93</v>
       </c>
@@ -7915,8 +12517,30 @@
       <c r="J95">
         <v>252</v>
       </c>
+      <c r="L95">
+        <v>93</v>
+      </c>
+      <c r="M95">
+        <v>186</v>
+      </c>
+      <c r="N95">
+        <v>68</v>
+      </c>
+      <c r="P95">
+        <v>93</v>
+      </c>
+      <c r="Q95">
+        <v>93</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T95">
+        <v>2.4500000000000002</v>
+      </c>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>94</v>
       </c>
@@ -7938,8 +12562,30 @@
       <c r="J96">
         <v>252</v>
       </c>
+      <c r="L96">
+        <v>94</v>
+      </c>
+      <c r="M96">
+        <v>188</v>
+      </c>
+      <c r="N96">
+        <v>66</v>
+      </c>
+      <c r="P96">
+        <v>94</v>
+      </c>
+      <c r="Q96">
+        <v>94</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T96">
+        <v>2.38</v>
+      </c>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>95</v>
       </c>
@@ -7961,8 +12607,30 @@
       <c r="J97">
         <v>252</v>
       </c>
+      <c r="L97">
+        <v>95</v>
+      </c>
+      <c r="M97">
+        <v>190</v>
+      </c>
+      <c r="N97">
+        <v>64</v>
+      </c>
+      <c r="P97">
+        <v>95</v>
+      </c>
+      <c r="Q97">
+        <v>95</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T97">
+        <v>2.31</v>
+      </c>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>96</v>
       </c>
@@ -7984,8 +12652,30 @@
       <c r="J98">
         <v>252</v>
       </c>
+      <c r="L98">
+        <v>96</v>
+      </c>
+      <c r="M98">
+        <v>192</v>
+      </c>
+      <c r="N98">
+        <v>62</v>
+      </c>
+      <c r="P98">
+        <v>96</v>
+      </c>
+      <c r="Q98">
+        <v>96</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T98">
+        <v>2.2400000000000002</v>
+      </c>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>97</v>
       </c>
@@ -8007,8 +12697,30 @@
       <c r="J99">
         <v>252</v>
       </c>
+      <c r="L99">
+        <v>97</v>
+      </c>
+      <c r="M99">
+        <v>194</v>
+      </c>
+      <c r="N99">
+        <v>60</v>
+      </c>
+      <c r="P99">
+        <v>97</v>
+      </c>
+      <c r="Q99">
+        <v>97</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T99">
+        <v>2.17</v>
+      </c>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>98</v>
       </c>
@@ -8030,8 +12742,30 @@
       <c r="J100">
         <v>252</v>
       </c>
+      <c r="L100">
+        <v>98</v>
+      </c>
+      <c r="M100">
+        <v>196</v>
+      </c>
+      <c r="N100">
+        <v>58</v>
+      </c>
+      <c r="P100">
+        <v>98</v>
+      </c>
+      <c r="Q100">
+        <v>98</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T100">
+        <v>2.1</v>
+      </c>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>99</v>
       </c>
@@ -8053,8 +12787,30 @@
       <c r="J101">
         <v>252</v>
       </c>
+      <c r="L101">
+        <v>99</v>
+      </c>
+      <c r="M101">
+        <v>198</v>
+      </c>
+      <c r="N101">
+        <v>56</v>
+      </c>
+      <c r="P101">
+        <v>99</v>
+      </c>
+      <c r="Q101">
+        <v>99</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T101">
+        <v>2.0299999999999998</v>
+      </c>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B102">
         <v>100</v>
       </c>
@@ -8076,8 +12832,30 @@
       <c r="J102">
         <v>252</v>
       </c>
+      <c r="L102">
+        <v>100</v>
+      </c>
+      <c r="M102">
+        <v>200</v>
+      </c>
+      <c r="N102">
+        <v>54</v>
+      </c>
+      <c r="P102">
+        <v>100</v>
+      </c>
+      <c r="Q102">
+        <v>100</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="T102">
+        <v>1.96</v>
+      </c>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>101</v>
       </c>
@@ -8099,8 +12877,30 @@
       <c r="J103">
         <v>252</v>
       </c>
+      <c r="L103">
+        <v>101</v>
+      </c>
+      <c r="M103">
+        <v>202</v>
+      </c>
+      <c r="N103">
+        <v>52</v>
+      </c>
+      <c r="P103">
+        <v>101</v>
+      </c>
+      <c r="Q103">
+        <v>101</v>
+      </c>
+      <c r="S103">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.99999999542058</v>
+      </c>
+      <c r="T103">
+        <v>1.89</v>
+      </c>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>102</v>
       </c>
@@ -8122,8 +12922,30 @@
       <c r="J104">
         <v>252</v>
       </c>
+      <c r="L104">
+        <v>102</v>
+      </c>
+      <c r="M104">
+        <v>204</v>
+      </c>
+      <c r="N104">
+        <v>50</v>
+      </c>
+      <c r="P104">
+        <v>102</v>
+      </c>
+      <c r="Q104">
+        <v>102</v>
+      </c>
+      <c r="S104">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.99999996989266</v>
+      </c>
+      <c r="T104">
+        <v>1.82</v>
+      </c>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>103</v>
       </c>
@@ -8145,8 +12967,30 @@
       <c r="J105">
         <v>252</v>
       </c>
+      <c r="L105">
+        <v>103</v>
+      </c>
+      <c r="M105">
+        <v>206</v>
+      </c>
+      <c r="N105">
+        <v>48</v>
+      </c>
+      <c r="P105">
+        <v>103</v>
+      </c>
+      <c r="Q105">
+        <v>103</v>
+      </c>
+      <c r="S105">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.99999981668273</v>
+      </c>
+      <c r="T105">
+        <v>1.75</v>
+      </c>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>104</v>
       </c>
@@ -8168,8 +13012,30 @@
       <c r="J106">
         <v>252</v>
       </c>
+      <c r="L106">
+        <v>104</v>
+      </c>
+      <c r="M106">
+        <v>208</v>
+      </c>
+      <c r="N106">
+        <v>46</v>
+      </c>
+      <c r="P106">
+        <v>104</v>
+      </c>
+      <c r="Q106">
+        <v>104</v>
+      </c>
+      <c r="S106">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.99999896612846</v>
+      </c>
+      <c r="T106">
+        <v>1.68</v>
+      </c>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B107">
         <v>105</v>
       </c>
@@ -8191,8 +13057,30 @@
       <c r="J107">
         <v>252</v>
       </c>
+      <c r="L107">
+        <v>105</v>
+      </c>
+      <c r="M107">
+        <v>210</v>
+      </c>
+      <c r="N107">
+        <v>44</v>
+      </c>
+      <c r="P107">
+        <v>105</v>
+      </c>
+      <c r="Q107">
+        <v>105</v>
+      </c>
+      <c r="S107">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.9999945983345</v>
+      </c>
+      <c r="T107">
+        <v>1.61</v>
+      </c>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B108">
         <v>106</v>
       </c>
@@ -8214,8 +13102,30 @@
       <c r="J108">
         <v>252</v>
       </c>
+      <c r="L108">
+        <v>106</v>
+      </c>
+      <c r="M108">
+        <v>212</v>
+      </c>
+      <c r="N108">
+        <v>42</v>
+      </c>
+      <c r="P108">
+        <v>106</v>
+      </c>
+      <c r="Q108">
+        <v>106</v>
+      </c>
+      <c r="S108">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.99997385065245</v>
+      </c>
+      <c r="T108">
+        <v>1.54</v>
+      </c>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>107</v>
       </c>
@@ -8237,8 +13147,30 @@
       <c r="J109">
         <v>252</v>
       </c>
+      <c r="L109">
+        <v>107</v>
+      </c>
+      <c r="M109">
+        <v>214</v>
+      </c>
+      <c r="N109">
+        <v>40</v>
+      </c>
+      <c r="P109">
+        <v>107</v>
+      </c>
+      <c r="Q109">
+        <v>107</v>
+      </c>
+      <c r="S109">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.99988268597477</v>
+      </c>
+      <c r="T109">
+        <v>1.47</v>
+      </c>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B110">
         <v>108</v>
       </c>
@@ -8260,8 +13192,30 @@
       <c r="J110">
         <v>252</v>
       </c>
+      <c r="L110">
+        <v>108</v>
+      </c>
+      <c r="M110">
+        <v>216</v>
+      </c>
+      <c r="N110">
+        <v>38</v>
+      </c>
+      <c r="P110">
+        <v>108</v>
+      </c>
+      <c r="Q110">
+        <v>108</v>
+      </c>
+      <c r="S110">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.99951214574281</v>
+      </c>
+      <c r="T110">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B111">
         <v>109</v>
       </c>
@@ -8283,8 +13237,30 @@
       <c r="J111">
         <v>252</v>
       </c>
+      <c r="L111">
+        <v>109</v>
+      </c>
+      <c r="M111">
+        <v>218</v>
+      </c>
+      <c r="N111">
+        <v>36</v>
+      </c>
+      <c r="P111">
+        <v>109</v>
+      </c>
+      <c r="Q111">
+        <v>109</v>
+      </c>
+      <c r="S111">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.99811899541191</v>
+      </c>
+      <c r="T111">
+        <v>1.33</v>
+      </c>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B112">
         <v>110</v>
       </c>
@@ -8306,8 +13282,30 @@
       <c r="J112">
         <v>252</v>
       </c>
+      <c r="L112">
+        <v>110</v>
+      </c>
+      <c r="M112">
+        <v>220</v>
+      </c>
+      <c r="N112">
+        <v>34</v>
+      </c>
+      <c r="P112">
+        <v>110</v>
+      </c>
+      <c r="Q112">
+        <v>110</v>
+      </c>
+      <c r="S112">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.99327374249597</v>
+      </c>
+      <c r="T112">
+        <v>1.26</v>
+      </c>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113">
         <v>111</v>
       </c>
@@ -8329,8 +13327,30 @@
       <c r="J113">
         <v>252</v>
       </c>
+      <c r="L113">
+        <v>111</v>
+      </c>
+      <c r="M113">
+        <v>222</v>
+      </c>
+      <c r="N113">
+        <v>32</v>
+      </c>
+      <c r="P113">
+        <v>111</v>
+      </c>
+      <c r="Q113">
+        <v>111</v>
+      </c>
+      <c r="S113">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.97768565990671</v>
+      </c>
+      <c r="T113">
+        <v>1.19</v>
+      </c>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114">
         <v>112</v>
       </c>
@@ -8352,8 +13372,30 @@
       <c r="J114">
         <v>252</v>
       </c>
+      <c r="L114">
+        <v>112</v>
+      </c>
+      <c r="M114">
+        <v>224</v>
+      </c>
+      <c r="N114">
+        <v>30</v>
+      </c>
+      <c r="P114">
+        <v>112</v>
+      </c>
+      <c r="Q114">
+        <v>112</v>
+      </c>
+      <c r="S114">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.93129521369534</v>
+      </c>
+      <c r="T114">
+        <v>1.1200000000000001</v>
+      </c>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>113</v>
       </c>
@@ -8375,8 +13417,30 @@
       <c r="J115">
         <v>252</v>
       </c>
+      <c r="L115">
+        <v>113</v>
+      </c>
+      <c r="M115">
+        <v>226</v>
+      </c>
+      <c r="N115">
+        <v>28</v>
+      </c>
+      <c r="P115">
+        <v>113</v>
+      </c>
+      <c r="Q115">
+        <v>113</v>
+      </c>
+      <c r="S115">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.80358496925868</v>
+      </c>
+      <c r="T115">
+        <v>1.05</v>
+      </c>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>114</v>
       </c>
@@ -8398,8 +13462,30 @@
       <c r="J116">
         <v>252</v>
       </c>
+      <c r="L116">
+        <v>114</v>
+      </c>
+      <c r="M116">
+        <v>228</v>
+      </c>
+      <c r="N116">
+        <v>26</v>
+      </c>
+      <c r="P116">
+        <v>114</v>
+      </c>
+      <c r="Q116">
+        <v>114</v>
+      </c>
+      <c r="S116">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>251.47835850069936</v>
+      </c>
+      <c r="T116">
+        <v>0.98</v>
+      </c>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117">
         <v>115</v>
       </c>
@@ -8421,8 +13507,30 @@
       <c r="J117">
         <v>252</v>
       </c>
+      <c r="L117">
+        <v>115</v>
+      </c>
+      <c r="M117">
+        <v>230</v>
+      </c>
+      <c r="N117">
+        <v>24</v>
+      </c>
+      <c r="P117">
+        <v>115</v>
+      </c>
+      <c r="Q117">
+        <v>115</v>
+      </c>
+      <c r="S117">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>250.7122143134643</v>
+      </c>
+      <c r="T117">
+        <v>0.91</v>
+      </c>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118">
         <v>116</v>
       </c>
@@ -8444,8 +13552,30 @@
       <c r="J118">
         <v>252</v>
       </c>
+      <c r="L118">
+        <v>116</v>
+      </c>
+      <c r="M118">
+        <v>232</v>
+      </c>
+      <c r="N118">
+        <v>22</v>
+      </c>
+      <c r="P118">
+        <v>116</v>
+      </c>
+      <c r="Q118">
+        <v>116</v>
+      </c>
+      <c r="S118">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>249.04265817547238</v>
+      </c>
+      <c r="T118">
+        <v>0.84</v>
+      </c>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119">
         <v>117</v>
       </c>
@@ -8467,8 +13597,30 @@
       <c r="J119">
         <v>252</v>
       </c>
+      <c r="L119">
+        <v>117</v>
+      </c>
+      <c r="M119">
+        <v>234</v>
+      </c>
+      <c r="N119">
+        <v>20</v>
+      </c>
+      <c r="P119">
+        <v>117</v>
+      </c>
+      <c r="Q119">
+        <v>117</v>
+      </c>
+      <c r="S119">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>245.67708743628293</v>
+      </c>
+      <c r="T119">
+        <v>0.77</v>
+      </c>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120">
         <v>118</v>
       </c>
@@ -8490,8 +13642,30 @@
       <c r="J120">
         <v>252</v>
       </c>
+      <c r="L120">
+        <v>118</v>
+      </c>
+      <c r="M120">
+        <v>236</v>
+      </c>
+      <c r="N120">
+        <v>18</v>
+      </c>
+      <c r="P120">
+        <v>118</v>
+      </c>
+      <c r="Q120">
+        <v>118</v>
+      </c>
+      <c r="S120">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>239.40106084529694</v>
+      </c>
+      <c r="T120">
+        <v>0.7</v>
+      </c>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>119</v>
       </c>
@@ -8513,8 +13687,30 @@
       <c r="J121">
         <v>252</v>
       </c>
+      <c r="L121">
+        <v>119</v>
+      </c>
+      <c r="M121">
+        <v>238</v>
+      </c>
+      <c r="N121">
+        <v>16</v>
+      </c>
+      <c r="P121">
+        <v>119</v>
+      </c>
+      <c r="Q121">
+        <v>119</v>
+      </c>
+      <c r="S121">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>228.57475643668513</v>
+      </c>
+      <c r="T121">
+        <v>0.63</v>
+      </c>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122">
         <v>120</v>
       </c>
@@ -8536,8 +13732,30 @@
       <c r="J122">
         <v>252</v>
       </c>
+      <c r="L122">
+        <v>120</v>
+      </c>
+      <c r="M122">
+        <v>240</v>
+      </c>
+      <c r="N122">
+        <v>14</v>
+      </c>
+      <c r="P122">
+        <v>120</v>
+      </c>
+      <c r="Q122">
+        <v>120</v>
+      </c>
+      <c r="S122">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>211.29864374617938</v>
+      </c>
+      <c r="T122">
+        <v>0.56000000000000005</v>
+      </c>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B123">
         <v>121</v>
       </c>
@@ -8559,8 +13777,30 @@
       <c r="J123">
         <v>252</v>
       </c>
+      <c r="L123">
+        <v>121</v>
+      </c>
+      <c r="M123">
+        <v>242</v>
+      </c>
+      <c r="N123">
+        <v>12</v>
+      </c>
+      <c r="P123">
+        <v>121</v>
+      </c>
+      <c r="Q123">
+        <v>121</v>
+      </c>
+      <c r="S123">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>185.79613195446373</v>
+      </c>
+      <c r="T123">
+        <v>0.49</v>
+      </c>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B124">
         <v>122</v>
       </c>
@@ -8582,8 +13822,30 @@
       <c r="J124">
         <v>252</v>
       </c>
+      <c r="L124">
+        <v>122</v>
+      </c>
+      <c r="M124">
+        <v>244</v>
+      </c>
+      <c r="N124">
+        <v>10</v>
+      </c>
+      <c r="P124">
+        <v>122</v>
+      </c>
+      <c r="Q124">
+        <v>122</v>
+      </c>
+      <c r="S124">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>150.97108659673336</v>
+      </c>
+      <c r="T124">
+        <v>0.42</v>
+      </c>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>123</v>
       </c>
@@ -8605,8 +13867,30 @@
       <c r="J125">
         <v>252</v>
       </c>
+      <c r="L125">
+        <v>123</v>
+      </c>
+      <c r="M125">
+        <v>246</v>
+      </c>
+      <c r="N125">
+        <v>8</v>
+      </c>
+      <c r="P125">
+        <v>123</v>
+      </c>
+      <c r="Q125">
+        <v>123</v>
+      </c>
+      <c r="S125">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>106.97918170009036</v>
+      </c>
+      <c r="T125">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>124</v>
       </c>
@@ -8628,8 +13912,30 @@
       <c r="J126">
         <v>252</v>
       </c>
+      <c r="L126">
+        <v>124</v>
+      </c>
+      <c r="M126">
+        <v>248</v>
+      </c>
+      <c r="N126">
+        <v>6</v>
+      </c>
+      <c r="P126">
+        <v>124</v>
+      </c>
+      <c r="Q126">
+        <v>124</v>
+      </c>
+      <c r="S126">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>55.57166876812181</v>
+      </c>
+      <c r="T126">
+        <v>0.28000000000000003</v>
+      </c>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127">
         <v>125</v>
       </c>
@@ -8651,8 +13957,30 @@
       <c r="J127">
         <v>252</v>
       </c>
+      <c r="L127">
+        <v>125</v>
+      </c>
+      <c r="M127">
+        <v>250</v>
+      </c>
+      <c r="N127">
+        <v>4</v>
+      </c>
+      <c r="P127">
+        <v>125</v>
+      </c>
+      <c r="Q127">
+        <v>125</v>
+      </c>
+      <c r="S127">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>0</v>
+      </c>
+      <c r="T127">
+        <v>0.21</v>
+      </c>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128">
         <v>126</v>
       </c>
@@ -8674,8 +14002,30 @@
       <c r="J128">
         <v>252</v>
       </c>
+      <c r="L128">
+        <v>126</v>
+      </c>
+      <c r="M128">
+        <v>252</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="P128">
+        <v>126</v>
+      </c>
+      <c r="Q128">
+        <v>126</v>
+      </c>
+      <c r="S128">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>-55.57166876812181</v>
+      </c>
+      <c r="T128">
+        <v>0.14000000000000001</v>
+      </c>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B129">
         <v>127</v>
       </c>
@@ -8697,10 +14047,38 @@
       <c r="J129">
         <v>0</v>
       </c>
+      <c r="L129">
+        <v>127</v>
+      </c>
+      <c r="M129">
+        <v>254</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>127</v>
+      </c>
+      <c r="Q129">
+        <v>127</v>
+      </c>
+      <c r="S129">
+        <f>_xlfn.GAUSS((252+(248-(Q:Q*4)))*0.07)*504</f>
+        <v>-106.97918170009036</v>
+      </c>
+      <c r="T129">
+        <v>7.0000000000000007E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T69:T129">
+    <sortCondition descending="1" ref="T69"/>
+  </sortState>
+  <mergeCells count="4">
     <mergeCell ref="A1:A28"/>
+    <mergeCell ref="F1:F28"/>
+    <mergeCell ref="K1:K28"/>
+    <mergeCell ref="O1:O28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8711,8 +14089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C2928D-7E01-4AE4-893E-4EA793FF3E07}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
